--- a/Data/aearep-840/candidatepackages.xlsx
+++ b/Data/aearep-840/candidatepackages.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="113">
   <si>
     <t>(Potential) missing package found</t>
   </si>
@@ -25,9 +25,6 @@
     <t>estout</t>
   </si>
   <si>
-    <t>filelist</t>
-  </si>
-  <si>
     <t>reghdfe</t>
   </si>
   <si>
@@ -46,48 +43,45 @@
     <t>ivreghdfe</t>
   </si>
   <si>
+    <t>groups</t>
+  </si>
+  <si>
     <t>freduse</t>
   </si>
   <si>
-    <t>groups</t>
-  </si>
-  <si>
     <t>table1</t>
   </si>
   <si>
+    <t>mat2txt</t>
+  </si>
+  <si>
     <t>parallel</t>
   </si>
   <si>
-    <t>mat2txt</t>
-  </si>
-  <si>
     <t>maptile</t>
   </si>
   <si>
     <t>missing</t>
   </si>
   <si>
-    <t>network</t>
-  </si>
-  <si>
     <t>fastgini</t>
   </si>
   <si>
     <t>estwrite</t>
   </si>
   <si>
+    <t>title</t>
+  </si>
+  <si>
     <t>project</t>
   </si>
   <si>
+    <t>cluster</t>
+  </si>
+  <si>
     <t>report</t>
   </si>
   <si>
-    <t>title</t>
-  </si>
-  <si>
-    <t>cluster</t>
-  </si>
-  <si>
     <t>white</t>
   </si>
   <si>
@@ -97,13 +91,13 @@
     <t>running</t>
   </si>
   <si>
+    <t>median</t>
+  </si>
+  <si>
     <t>index</t>
   </si>
   <si>
-    <t>lars</t>
-  </si>
-  <si>
-    <t>median</t>
+    <t>bys</t>
   </si>
   <si>
     <t>mtab</t>
@@ -112,48 +106,42 @@
     <t>combine</t>
   </si>
   <si>
+    <t>nearest</t>
+  </si>
+  <si>
     <t>cv</t>
   </si>
   <si>
-    <t>nearest</t>
-  </si>
-  <si>
-    <t>bys</t>
-  </si>
-  <si>
     <t>map</t>
   </si>
   <si>
+    <t>zip</t>
+  </si>
+  <si>
     <t>care</t>
   </si>
   <si>
+    <t>stop</t>
+  </si>
+  <si>
+    <t>unemp</t>
+  </si>
+  <si>
     <t>next</t>
   </si>
   <si>
-    <t>email</t>
-  </si>
-  <si>
-    <t>zip</t>
-  </si>
-  <si>
-    <t>stop</t>
-  </si>
-  <si>
-    <t>unemp</t>
-  </si>
-  <si>
     <t>head</t>
   </si>
   <si>
     <t>dependencies</t>
   </si>
   <si>
+    <t>tail</t>
+  </si>
+  <si>
     <t>dash</t>
   </si>
   <si>
-    <t>tail</t>
-  </si>
-  <si>
     <t>ds5</t>
   </si>
   <si>
@@ -169,9 +157,6 @@
     <t>dirname</t>
   </si>
   <si>
-    <t>/home/lv39/Workspace/AEA/all//aearep-840</t>
-  </si>
-  <si>
     <t>/home/lv39/Workspace/AEA/all//aearep-840/119069/II_Analysis</t>
   </si>
   <si>
@@ -211,21 +196,9 @@
     <t>/home/lv39/Workspace/AEA/all//aearep-840/120525/cgk_dataprograms_restricted/I_Build/1d_ATUS</t>
   </si>
   <si>
-    <t>/home/lv39/Workspace/AEA/all//aearep-840/tools</t>
-  </si>
-  <si>
     <t>filename</t>
   </si>
   <si>
-    <t>PII_stata_scan.do</t>
-  </si>
-  <si>
-    <t>config.do</t>
-  </si>
-  <si>
-    <t>template-config.do</t>
-  </si>
-  <si>
     <t>2_Analysis_Master.do</t>
   </si>
   <si>
@@ -247,9 +220,6 @@
     <t>2f_Nielsen_regressions.do</t>
   </si>
   <si>
-    <t>config.do</t>
-  </si>
-  <si>
     <t>cex_bootstrap_part1.do</t>
   </si>
   <si>
@@ -383,9 +353,6 @@
   </si>
   <si>
     <t>step225 -  ATUS - process 2003-2015 data for plots - mean shopping time (intensive margin).do</t>
-  </si>
-  <si>
-    <t>convert_graphs.do</t>
   </si>
 </sst>
 </file>
@@ -429,7 +396,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D47"/>
+  <dimension ref="A1:D43"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -437,13 +404,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2">
@@ -451,7 +418,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -475,7 +442,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -487,7 +454,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -499,7 +466,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -511,7 +478,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -523,7 +490,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -535,7 +502,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -547,7 +514,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>51</v>
+        <v>78</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -559,7 +526,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -571,7 +538,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -583,7 +550,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>92</v>
+        <v>131</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -595,7 +562,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>125</v>
+        <v>141</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -607,7 +574,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>130</v>
+        <v>148</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -619,7 +586,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>138</v>
+        <v>293</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -631,10 +598,10 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>267</v>
+        <v>371</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>0.12264462560415268</v>
       </c>
       <c r="D17"/>
     </row>
@@ -643,10 +610,10 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>279</v>
+        <v>491</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>0.1623140424489975</v>
       </c>
       <c r="D18"/>
     </row>
@@ -655,10 +622,10 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>323</v>
+        <v>499</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>0.16495867073535919</v>
       </c>
       <c r="D19"/>
     </row>
@@ -667,10 +634,10 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>495</v>
+        <v>547</v>
       </c>
       <c r="C20">
-        <v>0.16412466764450073</v>
+        <v>0.18082644045352936</v>
       </c>
       <c r="D20"/>
     </row>
@@ -679,10 +646,10 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>503</v>
+        <v>563</v>
       </c>
       <c r="C21">
-        <v>0.16677719354629517</v>
+        <v>0.18611569702625275</v>
       </c>
       <c r="D21"/>
     </row>
@@ -691,10 +658,10 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>564</v>
+        <v>611</v>
       </c>
       <c r="C22">
-        <v>0.18700265884399414</v>
+        <v>0.20198346674442291</v>
       </c>
       <c r="D22"/>
     </row>
@@ -703,10 +670,10 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>565</v>
+        <v>712</v>
       </c>
       <c r="C23">
-        <v>0.18733422458171844</v>
+        <v>0.2353719025850296</v>
       </c>
       <c r="D23"/>
     </row>
@@ -715,10 +682,10 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>566</v>
+        <v>792</v>
       </c>
       <c r="C24">
-        <v>0.18766577541828156</v>
+        <v>0.26181817054748535</v>
       </c>
       <c r="D24"/>
     </row>
@@ -727,10 +694,10 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>745</v>
+        <v>884</v>
       </c>
       <c r="C25">
-        <v>0.24701590836048126</v>
+        <v>0.29223141074180603</v>
       </c>
       <c r="D25"/>
     </row>
@@ -739,10 +706,10 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>758</v>
+        <v>955</v>
       </c>
       <c r="C26">
-        <v>0.25132626295089722</v>
+        <v>0.31570246815681458</v>
       </c>
       <c r="D26"/>
     </row>
@@ -751,10 +718,10 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>797</v>
+        <v>998</v>
       </c>
       <c r="C27">
-        <v>0.2642572820186615</v>
+        <v>0.32991734147071838</v>
       </c>
       <c r="D27"/>
     </row>
@@ -763,10 +730,10 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>985</v>
+        <v>1306</v>
       </c>
       <c r="C28">
-        <v>0.32659152150154114</v>
+        <v>0.43173554539680481</v>
       </c>
       <c r="D28"/>
     </row>
@@ -775,10 +742,10 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>1124</v>
+        <v>1316</v>
       </c>
       <c r="C29">
-        <v>0.37267905473709106</v>
+        <v>0.43504130840301514</v>
       </c>
       <c r="D29"/>
     </row>
@@ -787,10 +754,10 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>1133</v>
+        <v>1414</v>
       </c>
       <c r="C30">
-        <v>0.37566313147544861</v>
+        <v>0.46743801236152649</v>
       </c>
       <c r="D30"/>
     </row>
@@ -799,10 +766,10 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>1355</v>
+        <v>1469</v>
       </c>
       <c r="C31">
-        <v>0.44927054643630981</v>
+        <v>0.48561984300613403</v>
       </c>
       <c r="D31"/>
     </row>
@@ -811,10 +778,10 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>1423</v>
+        <v>1503</v>
       </c>
       <c r="C32">
-        <v>0.47181698679924011</v>
+        <v>0.49685949087142944</v>
       </c>
       <c r="D32"/>
     </row>
@@ -823,10 +790,10 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>1424</v>
+        <v>1564</v>
       </c>
       <c r="C33">
-        <v>0.47214853763580322</v>
+        <v>0.51702481508255005</v>
       </c>
       <c r="D33"/>
     </row>
@@ -835,10 +802,10 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <v>1444</v>
+        <v>1658</v>
       </c>
       <c r="C34">
-        <v>0.47877985239028931</v>
+        <v>0.54809916019439697</v>
       </c>
       <c r="D34"/>
     </row>
@@ -847,10 +814,10 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>1472</v>
+        <v>1678</v>
       </c>
       <c r="C35">
-        <v>0.48806366324424744</v>
+        <v>0.5547107458114624</v>
       </c>
       <c r="D35"/>
     </row>
@@ -859,10 +826,10 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <v>1565</v>
+        <v>1724</v>
       </c>
       <c r="C36">
-        <v>0.51889920234680176</v>
+        <v>0.56991738080978394</v>
       </c>
       <c r="D36"/>
     </row>
@@ -871,10 +838,10 @@
         <v>36</v>
       </c>
       <c r="B37">
-        <v>1621</v>
+        <v>1838</v>
       </c>
       <c r="C37">
-        <v>0.53746682405471802</v>
+        <v>0.60760331153869629</v>
       </c>
       <c r="D37"/>
     </row>
@@ -883,10 +850,10 @@
         <v>37</v>
       </c>
       <c r="B38">
-        <v>1798</v>
+        <v>1880</v>
       </c>
       <c r="C38">
-        <v>0.5961538553237915</v>
+        <v>0.62148761749267578</v>
       </c>
       <c r="D38"/>
     </row>
@@ -895,10 +862,10 @@
         <v>38</v>
       </c>
       <c r="B39">
-        <v>1817</v>
+        <v>1971</v>
       </c>
       <c r="C39">
-        <v>0.60245358943939209</v>
+        <v>0.65157026052474976</v>
       </c>
       <c r="D39"/>
     </row>
@@ -907,10 +874,10 @@
         <v>39</v>
       </c>
       <c r="B40">
-        <v>1859</v>
+        <v>2243</v>
       </c>
       <c r="C40">
-        <v>0.61637932062149048</v>
+        <v>0.74148762226104736</v>
       </c>
       <c r="D40"/>
     </row>
@@ -919,10 +886,10 @@
         <v>40</v>
       </c>
       <c r="B41">
-        <v>1890</v>
+        <v>2423</v>
       </c>
       <c r="C41">
-        <v>0.62665784358978271</v>
+        <v>0.8009917140007019</v>
       </c>
       <c r="D41"/>
     </row>
@@ -931,10 +898,10 @@
         <v>41</v>
       </c>
       <c r="B42">
-        <v>2000</v>
+        <v>2436</v>
       </c>
       <c r="C42">
-        <v>0.66312998533248901</v>
+        <v>0.80528926849365234</v>
       </c>
       <c r="D42"/>
     </row>
@@ -943,60 +910,12 @@
         <v>42</v>
       </c>
       <c r="B43">
-        <v>2133</v>
+        <v>2901</v>
       </c>
       <c r="C43">
-        <v>0.70722812414169312</v>
+        <v>0.95900827646255493</v>
       </c>
       <c r="D43"/>
-    </row>
-    <row r="44">
-      <c r="A44" t="s">
-        <v>43</v>
-      </c>
-      <c r="B44">
-        <v>2336</v>
-      </c>
-      <c r="C44">
-        <v>0.77453583478927612</v>
-      </c>
-      <c r="D44"/>
-    </row>
-    <row r="45">
-      <c r="A45" t="s">
-        <v>44</v>
-      </c>
-      <c r="B45">
-        <v>2424</v>
-      </c>
-      <c r="C45">
-        <v>0.80371350049972534</v>
-      </c>
-      <c r="D45"/>
-    </row>
-    <row r="46">
-      <c r="A46" t="s">
-        <v>45</v>
-      </c>
-      <c r="B46">
-        <v>2482</v>
-      </c>
-      <c r="C46">
-        <v>0.8229442834854126</v>
-      </c>
-      <c r="D46"/>
-    </row>
-    <row r="47">
-      <c r="A47" t="s">
-        <v>46</v>
-      </c>
-      <c r="B47">
-        <v>2730</v>
-      </c>
-      <c r="C47">
-        <v>0.90517240762710571</v>
-      </c>
-      <c r="D47"/>
     </row>
   </sheetData>
 </worksheet>
@@ -1004,471 +923,431 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B58"/>
+  <dimension ref="A1:B53"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B1" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B3" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B4" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B5" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B6" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B7" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B8" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B9" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B10" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B11" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B12" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B13" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B14" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B15" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B16" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B17" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B18" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B19" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B20" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B21" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B22" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B23" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B24" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B25" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B26" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B27" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B28" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B29" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B30" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B31" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B32" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B33" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B34" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B35" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B36" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B37" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B38" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B39" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B40" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B41" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B42" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B43" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B44" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B45" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B46" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B47" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B48" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B49" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B50" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B51" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B52" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B53" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="s">
-        <v>64</v>
-      </c>
-      <c r="B54" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="s">
-        <v>64</v>
-      </c>
-      <c r="B55" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="s">
-        <v>64</v>
-      </c>
-      <c r="B56" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="s">
-        <v>64</v>
-      </c>
-      <c r="B57" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="s">
-        <v>65</v>
-      </c>
-      <c r="B58" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>
